--- a/ProgrammingNotes.xlsx
+++ b/ProgrammingNotes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SoftUniQA-Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5182F7E-5847-4D4A-934C-15B548C46BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5990948-DF6F-4354-A7E6-9E3BCECF5702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21240" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21240" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MySQL" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="246">
   <si>
     <t>SELECT</t>
   </si>
@@ -1428,6 +1428,132 @@
   </si>
   <si>
     <t>Console.ReadLine();</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ==</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; </t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>if bigger</t>
+  </si>
+  <si>
+    <t>if smaller</t>
+  </si>
+  <si>
+    <t>if bigger or equals</t>
+  </si>
+  <si>
+    <t>if smaller or equals</t>
+  </si>
+  <si>
+    <t>if equal (number and text)</t>
+  </si>
+  <si>
+    <t>if different (number and text)</t>
+  </si>
+  <si>
+    <t>a == a</t>
+  </si>
+  <si>
+    <t>a != a</t>
+  </si>
+  <si>
+    <t>a &gt; b</t>
+  </si>
+  <si>
+    <t>a &lt; b</t>
+  </si>
+  <si>
+    <t>a &gt;= b</t>
+  </si>
+  <si>
+    <t>a &lt;= b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool </t>
+  </si>
+  <si>
+    <t>either true or false</t>
+  </si>
+  <si>
+    <t>ctr+K+ C = select all and add comment</t>
+  </si>
+  <si>
+    <t>(Math.Ceiling(input);</t>
+  </si>
+  <si>
+    <t>(Math.Floor(input);</t>
+  </si>
+  <si>
+    <t>returns lower number closest to the given</t>
+  </si>
+  <si>
+    <t>returns higher number next closes to the given</t>
+  </si>
+  <si>
+    <t>returns the lower or higher number if &lt;.50 or &gt; .50</t>
+  </si>
+  <si>
+    <t>(Math.Round(input);</t>
+  </si>
+  <si>
+    <t>(Math.Absolute(input);</t>
+  </si>
+  <si>
+    <t>returns the value regardless if negative without -</t>
+  </si>
+  <si>
+    <t>23.40 = 24</t>
+  </si>
+  <si>
+    <t>45.67 = 45</t>
+  </si>
+  <si>
+    <t>3.41 = 3    /    3. 68 = 4</t>
+  </si>
+  <si>
+    <t>55 - 90 = - 35  (returns only 35)</t>
+  </si>
+  <si>
+    <t>(Math.Round(input , 2 3 4 5 ..etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returns value with only 2,3,4, etc numbers after , </t>
+  </si>
+  <si>
+    <t>45.6735234 = 45.67  /    45.6735234 = 45.673 … etc</t>
+  </si>
+  <si>
+    <t>WriteLIne($"{input:F2, F3, F4..etc}");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same function as round input, 2,3,4…etc  </t>
+  </si>
+  <si>
+    <t>MathPi</t>
+  </si>
+  <si>
+    <t>number Pi 3.14543634534etc</t>
+  </si>
+  <si>
+    <t>MathPow(radius, 2,)</t>
+  </si>
+  <si>
+    <t>number raised to the power of a 2nd number (2,3,4,etc)</t>
   </si>
 </sst>
 </file>
@@ -2338,7 +2464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC55669E-2375-4483-A33B-F2EC34705A02}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -3160,16 +3286,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2E049-E1BB-4C51-B7AA-1C5399BF770F}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
     <col min="3" max="3" width="62" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
@@ -3313,6 +3439,9 @@
       <c r="B14" t="s">
         <v>195</v>
       </c>
+      <c r="D14" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3323,6 +3452,162 @@
       </c>
       <c r="C15" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>211</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/ProgrammingNotes.xlsx
+++ b/ProgrammingNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SoftUniQA-Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5990948-DF6F-4354-A7E6-9E3BCECF5702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62A4EB-1D3C-4FF4-8690-EE4BAB674D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21240" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="259">
   <si>
     <t>SELECT</t>
   </si>
@@ -1535,9 +1535,6 @@
     <t xml:space="preserve">returns value with only 2,3,4, etc numbers after , </t>
   </si>
   <si>
-    <t>45.6735234 = 45.67  /    45.6735234 = 45.673 … etc</t>
-  </si>
-  <si>
     <t>WriteLIne($"{input:F2, F3, F4..etc}");</t>
   </si>
   <si>
@@ -1554,6 +1551,48 @@
   </si>
   <si>
     <t>number raised to the power of a 2nd number (2,3,4,etc)</t>
+  </si>
+  <si>
+    <t>45.6735234 = 45.67  / 113.81763 = 113.82 (rounds the two numbers after,)</t>
+  </si>
+  <si>
+    <t>returns value with only 2,3,4, but also ROUNDS numbers</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>….and….</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>….or….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" ! " </t>
+  </si>
+  <si>
+    <t>when two conditions are true</t>
+  </si>
+  <si>
+    <t>when one condition or the other is true</t>
+  </si>
+  <si>
+    <t>when the condition is False</t>
+  </si>
+  <si>
+    <t>if (!.... ) is false</t>
+  </si>
+  <si>
+    <t>a % 2 = 0</t>
+  </si>
+  <si>
+    <t>an even number</t>
+  </si>
+  <si>
+    <t>8 % 2 = 0 (result is 4 which is even and there is no leftover number)</t>
   </si>
 </sst>
 </file>
@@ -3286,17 +3325,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2E049-E1BB-4C51-B7AA-1C5399BF770F}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="2" width="51.42578125" customWidth="1"/>
-    <col min="3" max="3" width="62" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="4" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3580,34 +3619,78 @@
         <v>238</v>
       </c>
       <c r="C28" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B29" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" t="s">
         <v>240</v>
-      </c>
-      <c r="B29" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B30" t="s">
         <v>242</v>
-      </c>
-      <c r="B30" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31" t="s">
         <v>244</v>
       </c>
-      <c r="B31" t="s">
-        <v>245</v>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>256</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/ProgrammingNotes.xlsx
+++ b/ProgrammingNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SoftUniQA-Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC62A4EB-1D3C-4FF4-8690-EE4BAB674D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E56771-FBBD-4E3C-BB59-8432335DE1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21240" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="270">
   <si>
     <t>SELECT</t>
   </si>
@@ -1593,6 +1593,39 @@
   </si>
   <si>
     <t>8 % 2 = 0 (result is 4 which is even and there is no leftover number)</t>
+  </si>
+  <si>
+    <t>for (tab, tab) - creates template for +</t>
+  </si>
+  <si>
+    <t>forr (tab,tab) - template for reverse   -</t>
+  </si>
+  <si>
+    <t>for (int i = 0; i &lt; X; i++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int I = starting value, i&lt; X = highest value, i++ = adding 1 </t>
+  </si>
+  <si>
+    <t>for (int I = 0; I &lt; (given value); i++)  or i+= X or i-= X etc</t>
+  </si>
+  <si>
+    <t>while(tab,tab) creates template for while cycle</t>
+  </si>
+  <si>
+    <t>whilee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">while (true) </t>
+  </si>
+  <si>
+    <t>while cycle when condintion is True</t>
+  </si>
+  <si>
+    <t>while (a &lt; b)  or while (a==b) etc…</t>
+  </si>
+  <si>
+    <t>hold ALT  = change code position</t>
   </si>
 </sst>
 </file>
@@ -3325,10 +3358,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2E049-E1BB-4C51-B7AA-1C5399BF770F}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,8 +3533,11 @@
       <c r="B16" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>204</v>
       </c>
@@ -3511,8 +3547,11 @@
       <c r="C17" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -3523,7 +3562,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -3533,8 +3572,11 @@
       <c r="C19" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>207</v>
       </c>
@@ -3544,8 +3586,11 @@
       <c r="C20" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -3555,8 +3600,11 @@
       <c r="C21" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>209</v>
       </c>
@@ -3567,7 +3615,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>225</v>
       </c>
@@ -3578,7 +3626,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>226</v>
       </c>
@@ -3589,7 +3637,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>230</v>
       </c>
@@ -3600,7 +3648,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>231</v>
       </c>
@@ -3611,7 +3659,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>237</v>
       </c>
@@ -3622,7 +3670,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -3633,7 +3681,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>241</v>
       </c>
@@ -3641,7 +3689,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>243</v>
       </c>
@@ -3649,7 +3697,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>256</v>
       </c>
@@ -3691,6 +3739,28 @@
       </c>
       <c r="C35" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>266</v>
+      </c>
+      <c r="B37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/ProgrammingNotes.xlsx
+++ b/ProgrammingNotes.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SoftUniQA-Courses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E56771-FBBD-4E3C-BB59-8432335DE1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0EC882-649B-40BE-A2DA-50A3FA5625D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21240" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21240" windowHeight="15390" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MySQL" sheetId="4" r:id="rId1"/>
     <sheet name="HTML" sheetId="1" r:id="rId2"/>
     <sheet name="C#" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="Python" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MySQL!$A$2:$C$17</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="290">
   <si>
     <t>SELECT</t>
   </si>
@@ -1627,12 +1627,72 @@
   <si>
     <t>hold ALT  = change code position</t>
   </si>
+  <si>
+    <t>print()</t>
+  </si>
+  <si>
+    <t>output in console</t>
+  </si>
+  <si>
+    <t>print("Hello")</t>
+  </si>
+  <si>
+    <t>CTRL+D  - copies the same row on next line</t>
+  </si>
+  <si>
+    <t># - comment</t>
+  </si>
+  <si>
+    <t>text_text_text…. - underscore used instead sps</t>
+  </si>
+  <si>
+    <t>int = integer (full number 1-5-45-444 etc)</t>
+  </si>
+  <si>
+    <t>float = real number (2.5, 15.7, 55.75 etc)</t>
+  </si>
+  <si>
+    <t>input()</t>
+  </si>
+  <si>
+    <t>input value</t>
+  </si>
+  <si>
+    <t>name = input()</t>
+  </si>
+  <si>
+    <t>int(input())</t>
+  </si>
+  <si>
+    <t xml:space="preserve">integer input  </t>
+  </si>
+  <si>
+    <t>A = int(input())</t>
+  </si>
+  <si>
+    <t>float(input())</t>
+  </si>
+  <si>
+    <t>float input</t>
+  </si>
+  <si>
+    <t>A = float(input())</t>
+  </si>
+  <si>
+    <t>(f"Text {something}.")</t>
+  </si>
+  <si>
+    <t>concatenation/interpolate</t>
+  </si>
+  <si>
+    <t>print(f"Hello, my name is {name}. I'm {yrs) old.")</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1768,8 +1828,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1788,8 +1856,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1896,11 +1970,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1969,11 +2080,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2237,9 +2389,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{690C5863-5FB4-4532-A1C7-B8CABF45D8E6}" name="Таблица1" displayName="Таблица1" ref="A1:C24" totalsRowShown="0">
   <autoFilter ref="A1:C24" xr:uid="{690C5863-5FB4-4532-A1C7-B8CABF45D8E6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2D3FA408-A960-4CD9-AEA9-566F1AEE97EE}" name="code" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{620229FA-6894-4395-A3D1-37582EFA5323}" name="definition" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{93A662F2-E01C-4A54-9F67-385CA515EBCB}" name="example" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{2D3FA408-A960-4CD9-AEA9-566F1AEE97EE}" name="code" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{620229FA-6894-4395-A3D1-37582EFA5323}" name="definition" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{93A662F2-E01C-4A54-9F67-385CA515EBCB}" name="example" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2252,7 +2404,7 @@
     <tableColumn id="1" xr3:uid="{5786732C-1A7D-4E15-AC5C-4E46988E423C}" name="code"/>
     <tableColumn id="2" xr3:uid="{EB162FC5-B9BF-49DE-BF15-AE31EBDB30F6}" name="definition"/>
     <tableColumn id="3" xr3:uid="{75781191-46F6-477B-B5E6-F5C7809BE7B0}" name="example"/>
-    <tableColumn id="4" xr3:uid="{2C9A5427-6640-42CA-8B44-B3D100060120}" name="example result" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{2C9A5427-6640-42CA-8B44-B3D100060120}" name="example result" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2266,6 +2418,18 @@
     <tableColumn id="2" xr3:uid="{6F5B4C18-D8E0-4E8C-9542-188C2847F7CD}" name="meaning"/>
     <tableColumn id="3" xr3:uid="{79C6E459-D8FC-4B9A-A719-A1B77942CB63}" name="example"/>
     <tableColumn id="4" xr3:uid="{106FCC60-3BA4-4EA3-B29A-AD43F102545A}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5955FE27-2D9D-4CC8-B375-0380321E86E3}" name="Таблица4" displayName="Таблица4" ref="A1:D351" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1AC961D6-1DEA-4C09-AD39-88DD62C6C1AF}" name="command"/>
+    <tableColumn id="2" xr3:uid="{57B56C8E-2764-43D4-AE2F-D1AADB806298}" name="meaning"/>
+    <tableColumn id="3" xr3:uid="{E457A338-B032-49C9-818F-FA3C53E0D31B}" name="example"/>
+    <tableColumn id="4" xr3:uid="{200F677C-DADB-4F43-BA66-84BCB4794D9C}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3360,8 +3524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11E2E049-E1BB-4C51-B7AA-1C5399BF770F}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3773,20 +3937,110 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1D1AA8-63CF-4686-8F84-0C5EA0F44EE7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>